--- a/resources/coffee_machine/PRODUCER/requirements.xlsx
+++ b/resources/coffee_machine/PRODUCER/requirements.xlsx
@@ -308,7 +308,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
